--- a/projects/training_NSGA1a.xlsx
+++ b/projects/training_NSGA1a.xlsx
@@ -1732,9 +1732,6 @@
     <t>Measure Directory Name</t>
   </si>
   <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
     <t>AnalysisType</t>
   </si>
   <si>
@@ -1945,9 +1942,6 @@
     <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
   </si>
   <si>
-    <t>1.5.6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Worker Only - </t>
   </si>
   <si>
@@ -2081,6 +2075,12 @@
   </si>
   <si>
     <t>Office NSGA</t>
+  </si>
+  <si>
+    <t>0.2.2</t>
+  </si>
+  <si>
+    <t>1.6.1-rc1</t>
   </si>
 </sst>
 </file>
@@ -2147,7 +2147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2202,6 +2202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3635,7 +3641,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3719,6 +3725,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5479,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5516,7 +5523,7 @@
         <v>439</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>563</v>
+        <v>678</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>440</v>
@@ -5538,10 +5545,10 @@
         <v>479</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -5549,7 +5556,7 @@
         <v>480</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>482</v>
@@ -5560,7 +5567,7 @@
         <v>445</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
@@ -5571,7 +5578,7 @@
         <v>$0.14/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5603,7 +5610,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="37"/>
       <c r="E9" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5620,7 +5627,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>481</v>
@@ -5631,7 +5638,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>483</v>
@@ -5664,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -5694,7 +5701,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -5707,7 +5714,7 @@
         <v>457</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
@@ -5719,13 +5726,13 @@
         <v>454</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>628</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>629</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>461</v>
@@ -5948,13 +5955,13 @@
         <v>33</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>453</v>
@@ -5968,11 +5975,11 @@
         <v>35</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -6007,8 +6014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A44" activeCellId="2" sqref="A34:XFD34 A39:XFD39 A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6063,14 +6070,14 @@
       <c r="R1" s="24"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -6170,13 +6177,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>71</v>
@@ -6283,10 +6290,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>2</v>
@@ -6346,7 +6353,7 @@
         <v>386</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>79</v>
@@ -6426,7 +6433,7 @@
         <v>386</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>79</v>
@@ -6492,7 +6499,7 @@
         <v>65</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>87</v>
@@ -6506,7 +6513,7 @@
         <v>386</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>79</v>
@@ -6572,7 +6579,7 @@
         <v>65</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>87</v>
@@ -6586,7 +6593,7 @@
         <v>386</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>79</v>
@@ -6652,7 +6659,7 @@
         <v>65</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>87</v>
@@ -6663,13 +6670,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>71</v>
@@ -6680,10 +6687,10 @@
         <v>22</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F29" s="33" t="s">
         <v>2</v>
@@ -6692,10 +6699,10 @@
         <v>65</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -6703,10 +6710,10 @@
         <v>22</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>2</v>
@@ -6715,10 +6722,10 @@
         <v>65</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -6726,10 +6733,10 @@
         <v>22</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F31" s="33" t="s">
         <v>2</v>
@@ -6738,10 +6745,10 @@
         <v>65</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -6749,7 +6756,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>131</v>
@@ -6772,7 +6779,7 @@
         <v>172</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>173</v>
@@ -6781,40 +6788,40 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="33" t="s">
+    <row r="34" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="33" t="s">
-        <v>675</v>
-      </c>
-      <c r="E34" s="33" t="s">
+      <c r="D34" s="41" t="s">
+        <v>673</v>
+      </c>
+      <c r="E34" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="41">
         <v>0.5</v>
       </c>
-      <c r="K34" s="33">
-        <v>0</v>
-      </c>
-      <c r="L34" s="33">
+      <c r="K34" s="41">
+        <v>0</v>
+      </c>
+      <c r="L34" s="41">
         <v>0.8</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="41">
         <v>0.5</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="41">
         <f>(L34+K34)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R34" s="33" t="s">
-        <v>670</v>
+      <c r="R34" s="41" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -6877,7 +6884,7 @@
         <v>65</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -6888,7 +6895,7 @@
         <v>172</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>173</v>
@@ -6897,40 +6904,40 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="33" t="s">
+    <row r="39" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>676</v>
-      </c>
-      <c r="E39" s="33" t="s">
+      <c r="D39" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="E39" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="41">
         <v>0.5</v>
       </c>
-      <c r="K39" s="33">
-        <v>0</v>
-      </c>
-      <c r="L39" s="33">
+      <c r="K39" s="41">
+        <v>0</v>
+      </c>
+      <c r="L39" s="41">
         <v>0.8</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="41">
         <v>0.5</v>
       </c>
-      <c r="N39" s="33">
+      <c r="N39" s="41">
         <f>(L39+K39)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R39" s="33" t="s">
-        <v>670</v>
+      <c r="R39" s="41" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -6950,7 +6957,7 @@
         <v>65</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J40" s="33" t="s">
         <v>87</v>
@@ -6993,7 +7000,7 @@
         <v>65</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -7004,7 +7011,7 @@
         <v>172</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>173</v>
@@ -7013,40 +7020,40 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="33" t="s">
+    <row r="44" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>677</v>
-      </c>
-      <c r="E44" s="33" t="s">
+      <c r="D44" s="41" t="s">
+        <v>675</v>
+      </c>
+      <c r="E44" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="41">
         <v>0.5</v>
       </c>
-      <c r="K44" s="33">
-        <v>0</v>
-      </c>
-      <c r="L44" s="33">
+      <c r="K44" s="41">
+        <v>0</v>
+      </c>
+      <c r="L44" s="41">
         <v>0.8</v>
       </c>
-      <c r="M44" s="33">
+      <c r="M44" s="41">
         <v>0.5</v>
       </c>
-      <c r="N44" s="33">
+      <c r="N44" s="41">
         <f>(L44+K44)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="R44" s="33" t="s">
-        <v>670</v>
+      <c r="R44" s="41" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -7066,7 +7073,7 @@
         <v>65</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J45" s="33" t="s">
         <v>87</v>
@@ -7109,7 +7116,7 @@
         <v>65</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -7117,13 +7124,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="D48" s="33" t="s">
         <v>659</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>661</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>71</v>
@@ -7134,10 +7141,10 @@
         <v>22</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>2</v>
@@ -7154,10 +7161,10 @@
         <v>22</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>2</v>
@@ -7950,10 +7957,10 @@
     </row>
     <row r="4" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>478</v>
@@ -7969,10 +7976,10 @@
     </row>
     <row r="5" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>478</v>
@@ -16379,72 +16386,72 @@
     </row>
     <row r="2" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>448</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>607</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>448</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
@@ -16455,52 +16462,52 @@
         <v>450</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>451</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="E11" t="s">
         <v>570</v>
       </c>
-      <c r="E11" t="s">
-        <v>571</v>
-      </c>
       <c r="G11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -16511,7 +16518,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G12" t="s">
         <v>475</v>
@@ -16531,42 +16538,42 @@
     <row r="14" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" t="s">
         <v>564</v>
-      </c>
-      <c r="C16" t="s">
-        <v>565</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R16" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="U16" s="33" t="s">
         <v>568</v>
-      </c>
-      <c r="U16" s="33" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G17" t="s">
         <v>460</v>
       </c>
       <c r="H17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>551</v>
@@ -16575,16 +16582,16 @@
         <v>0.01</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -16593,7 +16600,7 @@
         <v>30</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -16607,7 +16614,7 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>556</v>
@@ -16616,25 +16623,25 @@
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -16642,68 +16649,68 @@
         <v>555</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J19" s="32">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L20" t="s">
+        <v>596</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
         <v>597</v>
       </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>598</v>
-      </c>
       <c r="O20" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>552</v>
@@ -16712,27 +16719,27 @@
         <v>553</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M21" s="32">
         <v>0.01</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>554</v>
@@ -16741,7 +16748,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>551</v>
@@ -16750,21 +16757,21 @@
         <v>0.01</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>556</v>
@@ -16773,7 +16780,7 @@
         <v>0.01</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O23" s="34" t="s">
         <v>552</v>
@@ -16784,13 +16791,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L24" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M24" s="32">
         <v>45036000000000</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O24" s="34" t="s">
         <v>554</v>
@@ -16799,18 +16806,18 @@
         <v>2</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M25" s="33">
         <v>100</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -16829,7 +16836,7 @@
         <v>2</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/projects/training_NSGA1a.xlsx
+++ b/projects/training_NSGA1a.xlsx
@@ -2077,10 +2077,10 @@
     <t>Office NSGA</t>
   </si>
   <si>
-    <t>0.2.2</t>
-  </si>
-  <si>
-    <t>1.6.1-rc1</t>
+    <t>0.2.3</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
   </si>
 </sst>
 </file>
@@ -5487,7 +5487,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="D26" s="39"/>
     </row>
-    <row r="27" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="34" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))=0,"",INDEX(Lookups!$C$17:$Z$26,4,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-2))</f>
         <v>XoverDistIdx</v>
